--- a/y maze.xlsx
+++ b/y maze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C11D8A-F352-47B0-AD4B-BF7A9DC8D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B601B6A-09B9-4E6D-B7E3-BDACA105F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +315,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,17 +607,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.25" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="20.125" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="23.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9" style="2" customWidth="1"/>
+    <col min="30" max="30" width="20" style="2" customWidth="1"/>
+    <col min="31" max="31" width="16.75" style="2" customWidth="1"/>
+    <col min="32" max="32" width="18.75" style="2" customWidth="1"/>
+    <col min="33" max="33" width="18.5" style="2" customWidth="1"/>
+    <col min="34" max="34" width="25.125" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -715,7 +754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +832,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,7 +910,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,7 +988,7 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1066,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1144,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1222,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1300,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1458,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1537,7 @@
         <v>42.12</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +1616,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1774,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1899,14 +1938,14 @@
         <v>622.95000000000005</v>
       </c>
       <c r="AB16" s="4">
-        <f>H16+J16</f>
-        <v>1201.08</v>
-      </c>
-      <c r="AC16" s="3">
+        <f>H16+I16+J16-AA16</f>
+        <v>1201.0800000000002</v>
+      </c>
+      <c r="AC16" s="8">
         <f>AA16/(AA16+AB16)*100</f>
         <v>34.152398809230114</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="7">
         <f>100-AC16</f>
         <v>65.847601190769893</v>
       </c>
@@ -1915,14 +1954,14 @@
         <v>94.69</v>
       </c>
       <c r="AF16" s="2">
-        <f>P16+R16</f>
+        <f>P16+Q16+R16-AE16</f>
         <v>172.43</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AG16" s="6">
         <f>AE16/(AE16+AF16)*100</f>
         <v>35.448487571129078</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AH16" s="7">
         <f>100-AG16</f>
         <v>64.551512428870922</v>
       </c>
@@ -2012,15 +2051,15 @@
         <v>387.18</v>
       </c>
       <c r="AB17" s="4">
-        <f>H17+I17</f>
+        <f t="shared" ref="AB17:AB29" si="1">H17+I17+J17-AA17</f>
         <v>982.42000000000007</v>
       </c>
-      <c r="AC17" s="3">
-        <f t="shared" ref="AC17:AC29" si="1">AA17/(AA17+AB17)*100</f>
+      <c r="AC17" s="8">
+        <f t="shared" ref="AC17:AC29" si="2">AA17/(AA17+AB17)*100</f>
         <v>28.269567757009344</v>
       </c>
-      <c r="AD17" s="2">
-        <f t="shared" ref="AD17:AD29" si="2">100-AC17</f>
+      <c r="AD17" s="7">
+        <f t="shared" ref="AD17:AD29" si="3">100-AC17</f>
         <v>71.730432242990659</v>
       </c>
       <c r="AE17" s="2">
@@ -2028,15 +2067,15 @@
         <v>64</v>
       </c>
       <c r="AF17" s="2">
-        <f>P17+Q17</f>
+        <f t="shared" ref="AF17:AF29" si="4">P17+Q17+R17-AE17</f>
         <v>223.43</v>
       </c>
-      <c r="AG17" s="2">
-        <f t="shared" ref="AG17:AG29" si="3">AE17/(AE17+AF17)*100</f>
+      <c r="AG17" s="6">
+        <f t="shared" ref="AG17:AG29" si="5">AE17/(AE17+AF17)*100</f>
         <v>22.26629092300734</v>
       </c>
-      <c r="AH17" s="2">
-        <f t="shared" ref="AH17:AH29" si="4">100-AG17</f>
+      <c r="AH17" s="7">
+        <f t="shared" ref="AH17:AH29" si="6">100-AG17</f>
         <v>77.733709076992653</v>
       </c>
     </row>
@@ -2121,35 +2160,35 @@
         <v>6.38</v>
       </c>
       <c r="AA18" s="3">
-        <f>H18</f>
-        <v>615.38</v>
+        <f>I18</f>
+        <v>629</v>
       </c>
       <c r="AB18" s="4">
-        <f>H18+J18</f>
+        <f t="shared" si="1"/>
         <v>1311.0900000000001</v>
       </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="1"/>
-        <v>31.943399066686734</v>
-      </c>
-      <c r="AD18" s="2">
+      <c r="AC18" s="8">
         <f t="shared" si="2"/>
-        <v>68.056600933313263</v>
+        <v>32.421176337180228</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="3"/>
+        <v>67.578823662819772</v>
       </c>
       <c r="AE18" s="2">
         <f>Q18</f>
         <v>72.19</v>
       </c>
       <c r="AF18" s="2">
-        <f>P18+R18</f>
+        <f t="shared" si="4"/>
         <v>210.43</v>
       </c>
-      <c r="AG18" s="2">
-        <f t="shared" si="3"/>
+      <c r="AG18" s="6">
+        <f t="shared" si="5"/>
         <v>25.543132120869011</v>
       </c>
-      <c r="AH18" s="2">
-        <f t="shared" si="4"/>
+      <c r="AH18" s="7">
+        <f t="shared" si="6"/>
         <v>74.456867879130982</v>
       </c>
     </row>
@@ -2234,35 +2273,35 @@
         <v>14.69</v>
       </c>
       <c r="AA19" s="3">
-        <f>H19</f>
-        <v>341.91</v>
+        <f t="shared" ref="AA19:AA21" si="7">I19</f>
+        <v>657.4</v>
       </c>
       <c r="AB19" s="4">
-        <f>H19+J19</f>
+        <f t="shared" si="1"/>
         <v>574.39</v>
       </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="1"/>
-        <v>37.314198406635384</v>
-      </c>
-      <c r="AD19" s="2">
+      <c r="AC19" s="8">
         <f t="shared" si="2"/>
-        <v>62.685801593364616</v>
+        <v>53.369486681983126</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="3"/>
+        <v>46.630513318016874</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" ref="AE19:AE21" si="5">Q19</f>
+        <f t="shared" ref="AE19:AE21" si="8">Q19</f>
         <v>173.31</v>
       </c>
       <c r="AF19" s="2">
-        <f>P19+R19</f>
+        <f t="shared" si="4"/>
         <v>107.43</v>
       </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="3"/>
+      <c r="AG19" s="6">
+        <f t="shared" si="5"/>
         <v>61.733276341098517</v>
       </c>
-      <c r="AH19" s="2">
-        <f t="shared" si="4"/>
+      <c r="AH19" s="7">
+        <f t="shared" si="6"/>
         <v>38.266723658901483</v>
       </c>
     </row>
@@ -2347,35 +2386,35 @@
         <v>11.12</v>
       </c>
       <c r="AA20" s="3">
-        <f>H20</f>
-        <v>390.17</v>
+        <f t="shared" si="7"/>
+        <v>750.7</v>
       </c>
       <c r="AB20" s="4">
-        <f>H20+J20</f>
+        <f t="shared" si="1"/>
         <v>577.76</v>
       </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="1"/>
-        <v>40.309733141859432</v>
-      </c>
-      <c r="AD20" s="2">
+      <c r="AC20" s="8">
         <f t="shared" si="2"/>
-        <v>59.690266858140568</v>
+        <v>56.509040543185343</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="3"/>
+        <v>43.490959456814657</v>
       </c>
       <c r="AE20" s="2">
+        <f t="shared" si="8"/>
+        <v>186.88</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="4"/>
+        <v>88.88</v>
+      </c>
+      <c r="AG20" s="6">
         <f t="shared" si="5"/>
-        <v>186.88</v>
-      </c>
-      <c r="AF20" s="2">
-        <f>P20+R20</f>
-        <v>88.88</v>
-      </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="3"/>
         <v>67.769074557586308</v>
       </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="4"/>
+      <c r="AH20" s="7">
+        <f t="shared" si="6"/>
         <v>32.230925442413692</v>
       </c>
     </row>
@@ -2460,35 +2499,35 @@
         <v>7.56</v>
       </c>
       <c r="AA21" s="3">
-        <f>H21</f>
-        <v>371.35</v>
+        <f t="shared" si="7"/>
+        <v>479.16</v>
       </c>
       <c r="AB21" s="4">
-        <f>H21+J21</f>
-        <v>867.90000000000009</v>
-      </c>
-      <c r="AC21" s="3">
         <f t="shared" si="1"/>
-        <v>29.965705063546501</v>
-      </c>
-      <c r="AD21" s="2">
+        <v>867.89999999999986</v>
+      </c>
+      <c r="AC21" s="8">
         <f t="shared" si="2"/>
-        <v>70.034294936453506</v>
+        <v>35.570798628123477</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="3"/>
+        <v>64.42920137187653</v>
       </c>
       <c r="AE21" s="2">
+        <f t="shared" si="8"/>
+        <v>68.81</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="4"/>
+        <v>223.75</v>
+      </c>
+      <c r="AG21" s="6">
         <f t="shared" si="5"/>
-        <v>68.81</v>
-      </c>
-      <c r="AF21" s="2">
-        <f>P21+R21</f>
-        <v>223.75</v>
-      </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="3"/>
         <v>23.519961717254581</v>
       </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="4"/>
+      <c r="AH21" s="7">
+        <f t="shared" si="6"/>
         <v>76.480038282745426</v>
       </c>
     </row>
@@ -2577,32 +2616,32 @@
         <v>483.86</v>
       </c>
       <c r="AB22" s="4">
-        <f>H22+J22</f>
-        <v>1134.3200000000002</v>
-      </c>
-      <c r="AC22" s="3">
         <f t="shared" si="1"/>
-        <v>29.901494271341871</v>
-      </c>
-      <c r="AD22" s="2">
+        <v>1166.92</v>
+      </c>
+      <c r="AC22" s="8">
         <f t="shared" si="2"/>
-        <v>70.098505728658125</v>
+        <v>29.310992379360059</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="3"/>
+        <v>70.689007620639941</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" ref="AE22:AE29" si="6">Q22</f>
-        <v>103.12</v>
+        <f>R22</f>
+        <v>70.69</v>
       </c>
       <c r="AF22" s="2">
-        <f>P22+R22</f>
-        <v>171.63</v>
-      </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="3"/>
-        <v>37.532302092811648</v>
-      </c>
-      <c r="AH22" s="2">
         <f t="shared" si="4"/>
-        <v>62.467697907188352</v>
+        <v>204.06</v>
+      </c>
+      <c r="AG22" s="6">
+        <f t="shared" si="5"/>
+        <v>25.728844404003638</v>
+      </c>
+      <c r="AH22" s="7">
+        <f t="shared" si="6"/>
+        <v>74.271155595996362</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
@@ -2690,33 +2729,33 @@
         <f>J23</f>
         <v>519.52</v>
       </c>
-      <c r="AB23" s="2">
-        <f>H23+J23</f>
-        <v>1223.55</v>
-      </c>
-      <c r="AC23" s="2">
+      <c r="AB23" s="4">
         <f t="shared" si="1"/>
-        <v>29.804884485419404</v>
-      </c>
-      <c r="AD23" s="2">
+        <v>1617.37</v>
+      </c>
+      <c r="AC23" s="7">
         <f t="shared" si="2"/>
-        <v>70.195115514580593</v>
+        <v>24.311967391863877</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="3"/>
+        <v>75.688032608136126</v>
       </c>
       <c r="AE23" s="2">
+        <f>R23</f>
+        <v>59.88</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="4"/>
+        <v>221.69</v>
+      </c>
+      <c r="AG23" s="6">
+        <f t="shared" si="5"/>
+        <v>21.266470149518771</v>
+      </c>
+      <c r="AH23" s="7">
         <f t="shared" si="6"/>
-        <v>150.81</v>
-      </c>
-      <c r="AF23" s="2">
-        <f>P23+R23</f>
-        <v>130.76</v>
-      </c>
-      <c r="AG23" s="2">
-        <f t="shared" si="3"/>
-        <v>53.560393507831094</v>
-      </c>
-      <c r="AH23" s="2">
-        <f t="shared" si="4"/>
-        <v>46.439606492168906</v>
+        <v>78.733529850481233</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
@@ -2804,32 +2843,32 @@
         <f>I24</f>
         <v>502.88</v>
       </c>
-      <c r="AB24" s="2">
-        <f>H24+J24</f>
+      <c r="AB24" s="4">
+        <f t="shared" si="1"/>
         <v>1278.5</v>
       </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="1"/>
+      <c r="AC24" s="7">
+        <f t="shared" si="2"/>
         <v>28.229799369028502</v>
       </c>
-      <c r="AD24" s="2">
-        <f t="shared" si="2"/>
+      <c r="AD24" s="7">
+        <f t="shared" si="3"/>
         <v>71.770200630971502</v>
       </c>
       <c r="AE24" s="2">
+        <f t="shared" ref="AE22:AE29" si="9">Q24</f>
+        <v>69.44</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="4"/>
+        <v>231.75</v>
+      </c>
+      <c r="AG24" s="6">
+        <f t="shared" si="5"/>
+        <v>23.055214316544372</v>
+      </c>
+      <c r="AH24" s="7">
         <f t="shared" si="6"/>
-        <v>69.44</v>
-      </c>
-      <c r="AF24" s="2">
-        <f>P24+R24</f>
-        <v>231.75</v>
-      </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="3"/>
-        <v>23.055214316544372</v>
-      </c>
-      <c r="AH24" s="2">
-        <f t="shared" si="4"/>
         <v>76.944785683455621</v>
       </c>
     </row>
@@ -2918,33 +2957,33 @@
         <f>J25</f>
         <v>463.16</v>
       </c>
-      <c r="AB25" s="2">
-        <f>H25+J25</f>
-        <v>1311.03</v>
-      </c>
-      <c r="AC25" s="2">
+      <c r="AB25" s="4">
         <f t="shared" si="1"/>
-        <v>26.105434029049878</v>
-      </c>
-      <c r="AD25" s="2">
+        <v>1400.08</v>
+      </c>
+      <c r="AC25" s="7">
         <f t="shared" si="2"/>
-        <v>73.894565970950126</v>
+        <v>24.857774629140639</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="3"/>
+        <v>75.142225370859364</v>
       </c>
       <c r="AE25" s="2">
+        <f>R25</f>
+        <v>59.06</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="4"/>
+        <v>210.43</v>
+      </c>
+      <c r="AG25" s="6">
+        <f t="shared" si="5"/>
+        <v>21.915469961779657</v>
+      </c>
+      <c r="AH25" s="7">
         <f t="shared" si="6"/>
-        <v>90.62</v>
-      </c>
-      <c r="AF25" s="2">
-        <f>P25+R25</f>
-        <v>178.87</v>
-      </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="3"/>
-        <v>33.626479646740137</v>
-      </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="4"/>
-        <v>66.373520353259863</v>
+        <v>78.08453003822035</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
@@ -3032,32 +3071,32 @@
         <f>I26</f>
         <v>598.64</v>
       </c>
-      <c r="AB26" s="2">
-        <f>H26+J26</f>
+      <c r="AB26" s="4">
+        <f t="shared" si="1"/>
         <v>1058.5700000000002</v>
       </c>
-      <c r="AC26" s="2">
-        <f t="shared" si="1"/>
+      <c r="AC26" s="7">
+        <f t="shared" si="2"/>
         <v>36.123363967149608</v>
       </c>
-      <c r="AD26" s="2">
-        <f t="shared" si="2"/>
+      <c r="AD26" s="7">
+        <f t="shared" si="3"/>
         <v>63.876636032850392</v>
       </c>
       <c r="AE26" s="2">
+        <f t="shared" si="9"/>
+        <v>98.69</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="4"/>
+        <v>163.94</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="shared" si="5"/>
+        <v>37.57758062673723</v>
+      </c>
+      <c r="AH26" s="7">
         <f t="shared" si="6"/>
-        <v>98.69</v>
-      </c>
-      <c r="AF26" s="2">
-        <f>P26+R26</f>
-        <v>163.94</v>
-      </c>
-      <c r="AG26" s="2">
-        <f t="shared" si="3"/>
-        <v>37.57758062673723</v>
-      </c>
-      <c r="AH26" s="2">
-        <f t="shared" si="4"/>
         <v>62.42241937326277</v>
       </c>
     </row>
@@ -3146,33 +3185,33 @@
         <f>J27</f>
         <v>626.16999999999996</v>
       </c>
-      <c r="AB27" s="2">
-        <f>H27+J27</f>
-        <v>1252.99</v>
-      </c>
-      <c r="AC27" s="2">
+      <c r="AB27" s="4">
         <f t="shared" si="1"/>
-        <v>33.321803358947619</v>
-      </c>
-      <c r="AD27" s="2">
+        <v>1070.3600000000001</v>
+      </c>
+      <c r="AC27" s="7">
         <f t="shared" si="2"/>
-        <v>66.678196641052381</v>
+        <v>36.908866922482943</v>
+      </c>
+      <c r="AD27" s="7">
+        <f t="shared" si="3"/>
+        <v>63.091133077517057</v>
       </c>
       <c r="AE27" s="2">
+        <f>R27</f>
+        <v>143.94</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="4"/>
+        <v>132.19</v>
+      </c>
+      <c r="AG27" s="6">
+        <f t="shared" si="5"/>
+        <v>52.127621048057073</v>
+      </c>
+      <c r="AH27" s="7">
         <f t="shared" si="6"/>
-        <v>81.38</v>
-      </c>
-      <c r="AF27" s="2">
-        <f>P27+R27</f>
-        <v>194.75</v>
-      </c>
-      <c r="AG27" s="2">
-        <f t="shared" si="3"/>
-        <v>29.471625683554848</v>
-      </c>
-      <c r="AH27" s="2">
-        <f t="shared" si="4"/>
-        <v>70.528374316445152</v>
+        <v>47.872378951942927</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
@@ -3260,32 +3299,32 @@
         <f>I28</f>
         <v>656.82</v>
       </c>
-      <c r="AB28" s="2">
-        <f>H28+J28</f>
+      <c r="AB28" s="4">
+        <f t="shared" si="1"/>
         <v>1563.8899999999999</v>
       </c>
-      <c r="AC28" s="2">
-        <f t="shared" si="1"/>
+      <c r="AC28" s="7">
+        <f t="shared" si="2"/>
         <v>29.577027166987136</v>
       </c>
-      <c r="AD28" s="2">
-        <f t="shared" si="2"/>
+      <c r="AD28" s="7">
+        <f t="shared" si="3"/>
         <v>70.422972833012864</v>
       </c>
       <c r="AE28" s="2">
+        <f t="shared" si="9"/>
+        <v>82.81</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" si="4"/>
+        <v>207.38</v>
+      </c>
+      <c r="AG28" s="6">
+        <f t="shared" si="5"/>
+        <v>28.536476101864295</v>
+      </c>
+      <c r="AH28" s="7">
         <f t="shared" si="6"/>
-        <v>82.81</v>
-      </c>
-      <c r="AF28" s="2">
-        <f>P28+R28</f>
-        <v>207.38</v>
-      </c>
-      <c r="AG28" s="2">
-        <f t="shared" si="3"/>
-        <v>28.536476101864295</v>
-      </c>
-      <c r="AH28" s="2">
-        <f t="shared" si="4"/>
         <v>71.463523898135705</v>
       </c>
     </row>
@@ -3374,33 +3413,33 @@
         <f>J29</f>
         <v>829.77</v>
       </c>
-      <c r="AB29" s="2">
-        <f>H29+J29</f>
-        <v>1471.26</v>
-      </c>
-      <c r="AC29" s="2">
+      <c r="AB29" s="4">
         <f t="shared" si="1"/>
-        <v>36.060807551400899</v>
-      </c>
-      <c r="AD29" s="2">
+        <v>1144.75</v>
+      </c>
+      <c r="AC29" s="7">
         <f t="shared" si="2"/>
-        <v>63.939192448599101</v>
+        <v>42.023884285801103</v>
+      </c>
+      <c r="AD29" s="7">
+        <f t="shared" si="3"/>
+        <v>57.976115714198897</v>
       </c>
       <c r="AE29" s="2">
+        <f>R29</f>
+        <v>153.56</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" si="4"/>
+        <v>130.18</v>
+      </c>
+      <c r="AG29" s="6">
+        <f t="shared" si="5"/>
+        <v>54.119968985691123</v>
+      </c>
+      <c r="AH29" s="7">
         <f t="shared" si="6"/>
-        <v>65.06</v>
-      </c>
-      <c r="AF29" s="2">
-        <f>P29+R29</f>
-        <v>218.68</v>
-      </c>
-      <c r="AG29" s="2">
-        <f t="shared" si="3"/>
-        <v>22.929442447310919</v>
-      </c>
-      <c r="AH29" s="2">
-        <f t="shared" si="4"/>
-        <v>77.070557552689081</v>
+        <v>45.880031014308877</v>
       </c>
     </row>
   </sheetData>
